--- a/policies/โครงการจำนำข้าว.xlsx
+++ b/policies/โครงการจำนำข้าว.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyayut.chi\Documents\github\price_transmission\policies\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D821D0-D8BD-4CCD-9471-D6CC0027574F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,47 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>ปี</t>
+  </si>
+  <si>
+    <t>ชื่อโครงการ</t>
+  </si>
+  <si>
+    <t>มติ ครม.</t>
+  </si>
+  <si>
+    <t>กลุ่มเป้าหมาย</t>
+  </si>
+  <si>
+    <t>เป้าหมายปริมาณข้าว</t>
+  </si>
+  <si>
+    <t>โครงการ_เริ่ม</t>
+  </si>
+  <si>
+    <t>โครงการ_สิ้นสุด</t>
+  </si>
+  <si>
+    <t>หมายเหตุ</t>
+  </si>
+  <si>
+    <t>ปริมาณข้าวที่เข้าโครงการ</t>
+  </si>
+  <si>
+    <t>ราคาที่รับจำนำ</t>
+  </si>
+  <si>
+    <t>งบประมาณที่ใช้</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +72,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +108,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +414,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="20.77734375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="26.5546875" style="4" customWidth="1"/>
+    <col min="9" max="10" width="19.21875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="21.21875" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="24.6" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/policies/โครงการจำนำข้าว.xlsx
+++ b/policies/โครงการจำนำข้าว.xlsx
@@ -5,17 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyayut.chi\Documents\github\price_transmission\policies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyayut.chi\Downloads\จำนำข้าว\จำนำข้าว\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D821D0-D8BD-4CCD-9471-D6CC0027574F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0ED700-22E0-4E84-A443-8941B1C93FDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$47</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="215">
   <si>
     <t>ปี</t>
   </si>
@@ -58,13 +62,734 @@
   </si>
   <si>
     <t>งบประมาณที่ใช้</t>
+  </si>
+  <si>
+    <t>การรับจำนำข้าวเปลือก</t>
+  </si>
+  <si>
+    <t>1  ส.ค. 28</t>
+  </si>
+  <si>
+    <t>200,000 ตัน</t>
+  </si>
+  <si>
+    <t>เกษตรกร</t>
+  </si>
+  <si>
+    <t>42 ล้านบาท</t>
+  </si>
+  <si>
+    <t>สรุปมติการประชุมพิจารณาแก้ไขปัญหาข้าว ปี 2535/36</t>
+  </si>
+  <si>
+    <t>22 ธ.ค. 35</t>
+  </si>
+  <si>
+    <t>30 มี.ค. 36</t>
+  </si>
+  <si>
+    <t>ข้าวนาปรังฤดูการผลิตปี 2536 ตกต่ำ     </t>
+  </si>
+  <si>
+    <t>22 ก.พ. 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ขอให้สภา ฯ พิจารณาช่วยเหลือเกษตรกรผู้จำนำข้าวกับ ธกส. ตามแนวนโยบายของรัฐบาลในฤดูกาลผลิตปี 2535/2536 </t>
+  </si>
+  <si>
+    <t>แหล่งเงินชดเชยภาระดอกเบี้ยที่เกิดขึ้นจากต้นทุนค่าใช้จ่ายในการดำเนินการตามโครงการรับจำนำข้าวเปลือกและโครงการระบายข้าวเปลือก ปี 2535/36 ที่รัฐบาลจ่ายให้ 
+ธ.ก.ส. ล่าช้า     </t>
+  </si>
+  <si>
+    <t>26 มี.ค. 39</t>
+  </si>
+  <si>
+    <t>ธ.ก.ส</t>
+  </si>
+  <si>
+    <t>5 ม.ค. 42</t>
+  </si>
+  <si>
+    <t> สถานการณ์ข้าว</t>
+  </si>
+  <si>
+    <t>30,000 ล้านบาท</t>
+  </si>
+  <si>
+    <t>เกษตรกร
+ผู้ประกอบการค้าข้าว</t>
+  </si>
+  <si>
+    <t>2 ก.พ. 42</t>
+  </si>
+  <si>
+    <t>3,500  ล้านบาท</t>
+  </si>
+  <si>
+    <t>มาตรการแทรกแซงตลาดข้าวตามมติ กนข. ขององค์การคลังสินค้า</t>
+  </si>
+  <si>
+    <t>12 มี.ค. 45</t>
+  </si>
+  <si>
+    <t>มาตรการแก้ไขปัญหาราคาข้าวนาปี ปี 2544/45</t>
+  </si>
+  <si>
+    <t>8.7 ล้านตัน</t>
+  </si>
+  <si>
+    <t>1.88 ล้านตัน</t>
+  </si>
+  <si>
+    <t>1,393.5 ล้านบาท</t>
+  </si>
+  <si>
+    <t>15 พ.ย. 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ต.ค. 45</t>
+  </si>
+  <si>
+    <t>ข้าวเปลือกเจ้าหอมมะลิ 105 และ กข. 15 = 6,500 บาท/ตัน
+ข้าวเปลือกเจ้า 100% = 5,330 บาท/ตัน
+ข้าวเปลือกเจ้า 5% = 5,235 บาท/ตัน
+ข้าวเปลือกเจ้า 10% = 5,045 บาท/ตัน
+ข้าวเปลือกเจ้า 15% = 4,950 บาท/ตัน
+ข้าวเปลือกเจ้า 25% = 4,760 บาท/ตัน
+ข้าวเปลือกเหนียว 10% คละ = 5,650 บาท/ตัน
+ข้าวเปลือกเหนียว 10% เมล็ดยาว 
+= 5,900 บาท/ตัน</t>
+  </si>
+  <si>
+    <t>รายงานผลการดำเนินมาตรการแทรกแซงราคาข้าวของรัฐบาล ปี 2547</t>
+  </si>
+  <si>
+    <t>15 ก.พ. 48</t>
+  </si>
+  <si>
+    <t>11.5 ล้านตัน</t>
+  </si>
+  <si>
+    <t>2.502 ล้านตัน</t>
+  </si>
+  <si>
+    <t>1,729.4 ล้านบาท</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ข้าวเปลือกหอมมะลิ  = 6,700 - 7,000 
+บาท/ตัน
+ข้าวเปลือกเจ้า  = 4,760 - 5,330 บาท/ตัน
+ข้าวเปลือกเหนียว = 5,650 - 5,900 บาท/ตัน
+ข้าวเปลือกหอม = 5,400 - 6,000 บาท/ตัน
+ข้าวเปลือกเจ้านาปรัง = 5,500 - 5,900 
+บาท/ตัน
+</t>
+  </si>
+  <si>
+    <t>ข้าวเปลือกหอมมะลิ 5 ล้านตัน
+ข้าวเปลือกเจ้า 3 ล้านตัน
+ข้าวเปลือกเหนียว  1 ล้านตัน
+ข้าวเปลือกหอมและข้าวนาปรัง
+2.5 ล้านตัน</t>
+  </si>
+  <si>
+    <t>รายงานสถานการณ์รับจำนำข้าวเปลือกและมันสำปะหลัง</t>
+  </si>
+  <si>
+    <t>22 ก.พ. 48</t>
+  </si>
+  <si>
+    <t>3.455 ล้านตัน</t>
+  </si>
+  <si>
+    <t>1 พ.ย. 47</t>
+  </si>
+  <si>
+    <t>31 มี.ค. 48</t>
+  </si>
+  <si>
+    <t>การดำเนินงานของคณะกรรมการนโยบายข้าว</t>
+  </si>
+  <si>
+    <t>1 มี.ค. 48</t>
+  </si>
+  <si>
+    <t>584.01 ล้านบาท</t>
+  </si>
+  <si>
+    <t>15 ม.ค. 48</t>
+  </si>
+  <si>
+    <t>15 พ.ค. 48</t>
+  </si>
+  <si>
+    <t>ขอรับจัดสรรงบประมาณกองทุนรวมเพื่อช่วยเหลือเกษตรกร</t>
+  </si>
+  <si>
+    <t>25 ต.ค. 48</t>
+  </si>
+  <si>
+    <t>1,081.77 ล้านบาท</t>
+  </si>
+  <si>
+    <t>12 ธ.ค. 49</t>
+  </si>
+  <si>
+    <t>รายงานสถานการณ์ข้าวและผลการรับจำนำข้าวเปลือกนาปี ปีการผลิต 2549/50</t>
+  </si>
+  <si>
+    <t>9 ล้านตัน</t>
+  </si>
+  <si>
+    <t>28 ก.พ. 50</t>
+  </si>
+  <si>
+    <t>138,425 ตัน</t>
+  </si>
+  <si>
+    <t>23 ม.ค. 50</t>
+  </si>
+  <si>
+    <t>รายงานสถานการณ์ข้าวและผลการรับจำนำข้าวเปลือกนาปี ปีการผลิต 2549/51</t>
+  </si>
+  <si>
+    <t>1 พ.ย. 49</t>
+  </si>
+  <si>
+    <t>27 พ.ย. 49</t>
+  </si>
+  <si>
+    <t>1,008,759 ตัน</t>
+  </si>
+  <si>
+    <t>ราคาต่างที่ปริมาณต้นข้าวที่สีได้
+42 กรัม = 10,000 บาท/ตัน
+40 กรัม = 9,900 บาท/ตัน
+38 กรัม = 9,800 บาท/ตัน
+36 กรัม = 9,700 บาท/ตัน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ข้าวเปลือกหอมมะลิ  = 8,400 - 8,600 
+บาท/ตัน
+ข้าวเปลือกเจ้า 5%  = 6,200 - 6,300 บาท/ตัน
+ข้าวเปลือกเหนียว 10% (เมล็ดยาว) = 10,800 - 11,000 บาท/ตัน
+ข้าวเปลือกปทุมธานี = 6,500 - 6,700 บาท/ตัน
+</t>
+  </si>
+  <si>
+    <t>6 ก.พ. 50</t>
+  </si>
+  <si>
+    <t>รายงานสถานการณ์ข้าวและผลการรับจำนำข้าวเปลือกนาปี ปีการผลิต 2549/52</t>
+  </si>
+  <si>
+    <t>25 ม.ค. 50</t>
+  </si>
+  <si>
+    <t>1,439,119 ล้านตัน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ข้าวเปลือกหอมมะลิ  = 8,800 - 9,300 
+บาท/ตัน
+ข้าวเปลือกเจ้า 5%  = 6,400 - 6,500 บาท/ตัน
+ข้าวเปลือกเหนียว 10% (เมล็ดยาว) = 11,400 - 11,600 บาท/ตัน
+ข้าวเปลือกปทุมธานี = 7,200 - 7,300 บาท/ตัน
+</t>
+  </si>
+  <si>
+    <t>12 มิ.ย. 50</t>
+  </si>
+  <si>
+    <t>การประเมินโครงการรับจำนำข้าวเปลือกและมันสำปะหลัง ปี 2548/49 และ 2549/50</t>
+  </si>
+  <si>
+    <t>ปี 2548/49
+- ข้าวเปลือกหอมมะลิ 9,700 -10,000 บาท/ตัน
+- ข้าวเปลือกเจ้า 6,700 -7,100 บาท/ตัน
+ปี 2549/50
+- ข้าวเปลือกหอมมะลิ 8,700 -9,000 บาท/ตัน
+- ข้าวเปลือกเจ้า 5,900 -6,500 บาท/ตัน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปี 2548/49 =  5,291,831 ตัน
+ปี 2549/50 =  1,809,316 ตัน
+</t>
+  </si>
+  <si>
+    <t>9 ต.ค. 50</t>
+  </si>
+  <si>
+    <t>ขออนุมัติงบประมาณรับจำนำข้าวเปลือกนาปรัง ปี 48 -49 และโครงการรับจำนำข้าวเปลือกนาปี 47-48 และ 48-49</t>
+  </si>
+  <si>
+    <t>1,930.052 ล้านบาท</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+นาปรัง 2548 =  2.5 ล้านตัน
+นาปรัง 2549 =  2.5 ล้านตัน
+นาปี 2547/48 = 9.0 ล้านตัน
+นาปี 2548/49 = 9.0 ล้านตัน
+</t>
+  </si>
+  <si>
+    <t>13.859 ล้านตัน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+นาปรัง 2548 =  ธ.ค. 48
+นาปรัง 2549 =  ธ.ค. 49
+นาปี 2547/48 = ต.ค. 48
+นาปี 2548/49 = ต.ค. 49
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+นาปรัง 2548 =  ก.ย. 50
+นาปรัง 2549 =  ธ.ค. 50
+นาปี 2547/48 = ก.ย. 50
+นาปี 2548/49 = ต.ค. 50
+</t>
+  </si>
+  <si>
+    <t>8 ก.ค. 51</t>
+  </si>
+  <si>
+    <t>การแก้ไขปัญหาราคาข้าวเปลือกเหนียวตกต่ำ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9,000 บาท/ตัน</t>
+  </si>
+  <si>
+    <t>9 ก.ย. 51</t>
+  </si>
+  <si>
+    <t>โครงการรับจำนำข้าวเปลือกนาปี ปีการผลิต 51-52</t>
+  </si>
+  <si>
+    <t>11,016.24 ล้านบาท</t>
+  </si>
+  <si>
+    <t>8 ล้านตัน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ข้าวเปลือกหอมมะลิ  = 16,000 บาท/ตัน
+ข้าวเปลือกเจ้านาปี 100%  = 14,000 บาท/ตัน
+ข้าวเปลือกเหนียว 10% (เมล็ดยาว) = 10,000  บาท/ตัน
+ข้าวเปลือกปทุมธานี = 9,000 บาท/ตัน
+</t>
+  </si>
+  <si>
+    <t>21 ต.ค. 51</t>
+  </si>
+  <si>
+    <t>การบริหารจัดการข้าวโครงการจำนำของรัฐบาล</t>
+  </si>
+  <si>
+    <t>2.5 ล้านตัน</t>
+  </si>
+  <si>
+    <t>15 มิ.ย. 51</t>
+  </si>
+  <si>
+    <t>30 ก.ย. 51</t>
+  </si>
+  <si>
+    <t>4.5 ล้านตัน</t>
+  </si>
+  <si>
+    <t>3,961,187 ตัน</t>
+  </si>
+  <si>
+    <t>28 ต.ค. 51</t>
+  </si>
+  <si>
+    <t>กรอบและหลักเกณฑ์การรับจำนำข้าวเปลือกนาปี ปีการผลิต 51-52</t>
+  </si>
+  <si>
+    <t>1 พ.ย. 51</t>
+  </si>
+  <si>
+    <t>31 ต.ค. 52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ข้าวเปลือกหอมมะลิ  = 15,000 บาท/ตัน
+ข้าวเปลือกเหนียว (ยาว)  = 10,000 บาท/ตัน
+ข้าวเปลือกเหนียว (คละ)  = 9,000 บาท/ตัน
+ข้าวเปลือกหอมจังหวัด = 13,000  บาท/ตัน
+ข้าวเปลือกปทุมธานี = 12,000 บาท/ตัน
+</t>
+  </si>
+  <si>
+    <t>97,000 ล้านบาท</t>
+  </si>
+  <si>
+    <t>17 มี.ค. 52</t>
+  </si>
+  <si>
+    <t>มาตรการรับจำนำข้าวเปลือกนาปรัง ปี 2552 และคำสั่งแต่งตั้งคณะอนุกรรมการ</t>
+  </si>
+  <si>
+    <t>16 มี.ค. 52</t>
+  </si>
+  <si>
+    <t>ธ.ค. 52</t>
+  </si>
+  <si>
+    <t>ข้าวเปลือกเจ้า 25% - 100% = 10,800 -12,000 บาท/ตัน
+ข้าวเปลือกปทุมธานี = 11,400 - 12,000 บาท/ตัน
+ข้าวเปลือกเหนียว 10% = 9,000 บาท/ตัน</t>
+  </si>
+  <si>
+    <t>24 มี.ค. 52</t>
+  </si>
+  <si>
+    <t>การกำกับดูแลและตรวจสอบโครงการรับจำนำข้าวเปลือกของรัฐบาล</t>
+  </si>
+  <si>
+    <t>5,287,176 ตัน</t>
+  </si>
+  <si>
+    <t>ข้าวเปลือกเจ้าหอมมะลิ = 14,100 -14,600 บาท/ตัน
+ข้าวเปลือกเจ้า 5% = 9,500 -10,800 บาท/ตัน
+ข้าวเปลือกปทุมธานี = 11,500 - 12,000 บาท/ตัน
+ข้าวเปลือกเหนียวเมล็ดยาว = 7,500 - 9,000 บาท/ตัน</t>
+  </si>
+  <si>
+    <t>การปรับเพิ่มเป้าหมายปริมาณรับจำนำข้าวเปลือกนาปรัง ปี 2552 และกำหนดวันข้าวและชาวนาแห่งชาติ</t>
+  </si>
+  <si>
+    <t>6 พ.ค. 52</t>
+  </si>
+  <si>
+    <t>4 ล้านตัน</t>
+  </si>
+  <si>
+    <t>110,000 ล้านบาท</t>
+  </si>
+  <si>
+    <t>2.122 ล้านตัน</t>
+  </si>
+  <si>
+    <t>3 มิ.ย. 52</t>
+  </si>
+  <si>
+    <t>3,657,608 ตัน</t>
+  </si>
+  <si>
+    <t>31 ก.ค. 52</t>
+  </si>
+  <si>
+    <t>5 ล้านตัน</t>
+  </si>
+  <si>
+    <t>ผลการดำเนินโครงการรับจำนำข้าวเปลือกนาปรัง ปี 2552</t>
+  </si>
+  <si>
+    <t>การปรับเพิ่มเป้าหมายปริมาณรับจำนำข้าวเปลือกนาปรัง ปี 2552</t>
+  </si>
+  <si>
+    <t>9 มิ.ย. 52</t>
+  </si>
+  <si>
+    <t>6 ล้านตัน</t>
+  </si>
+  <si>
+    <t>23,600 ล้านบาท</t>
+  </si>
+  <si>
+    <t>21 ก.ค. 52</t>
+  </si>
+  <si>
+    <t>การจำหน่ายข้าวสารโดยอิงกลไกตลาดสินค้าเกษตรล่วงหน้าแห่งประเทศไทย (AFET)</t>
+  </si>
+  <si>
+    <t>1 ก.ย. 52</t>
+  </si>
+  <si>
+    <t>การจัดสรรปริมาณข้าวโครงการรับจำนำข้าวเปลือกนาปรัง ปี 2552</t>
+  </si>
+  <si>
+    <t>8 ก.ย. 52</t>
+  </si>
+  <si>
+    <t>5,153,709 ตัน</t>
+  </si>
+  <si>
+    <t>ข้าวเปลือกเจ้า 5% = 11,800 บาท/ตัน
+ข้าวเปลือกปทุมธานี = 11,400 - 12,000 บาท/ตัน
+ข้าวเปลือกเหนียวเมล็ดคละ = 9,000 บาท/ตัน
+ข้าวเปลือกเหนียวเมล็ดยาว = 10,000 บาท/ตัน</t>
+  </si>
+  <si>
+    <t>การใช้เงินจาก ธกส เป็นเงินทุนหมุนเวียนในการรับจำนำข้าวเปลือกนาปี ปีการผลิต 2554-2555</t>
+  </si>
+  <si>
+    <t>27 ก.ย. 54</t>
+  </si>
+  <si>
+    <t>7 ล้านตัน</t>
+  </si>
+  <si>
+    <t>15 ล้านตัน</t>
+  </si>
+  <si>
+    <t>4,195.319 ล้านบาท</t>
+  </si>
+  <si>
+    <t>การเยียวยาและช่วยค่าเมล็ดพันธุ์แก่เกษตรกรที่พื้นที่เพาะปลูกเสียหายเกินกว่าร้อยละ 50</t>
+  </si>
+  <si>
+    <t>4.554 ล้านตัน</t>
+  </si>
+  <si>
+    <t>7,203.16 ล้านบาท</t>
+  </si>
+  <si>
+    <t>7 ต.ค. 54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>13 ธ.ค. 54</t>
+  </si>
+  <si>
+    <t>58.42 ล้านบาท</t>
+  </si>
+  <si>
+    <t>ธ.ค. 54</t>
+  </si>
+  <si>
+    <t>ก.ย. 55</t>
+  </si>
+  <si>
+    <t>ขออนุมัติงบประมาณดำเนินโครงการตรวจสอบคุณภาพ/ปริมาณข้าวสารตามโครงการรับจำนำข้าวเปลือกนาปี ปีการผลิต 2554/55</t>
+  </si>
+  <si>
+    <t>22 ก.พ. 55</t>
+  </si>
+  <si>
+    <t>มาตรการรับจำนำข้าวเปลือกนาปรัง ปี 2555</t>
+  </si>
+  <si>
+    <t>ข้าวเปลือกเจ้า 100% = 15,000 บาท/ตัน
+ข้าวเปลือกเจ้า 5% = 14,800 บาท/ตัน
+ข้าวเปลือกเจ้า 10% = 14,600 บาท/ตัน
+ข้าวเปลือกเจ้า 15% = 14,200 บาท/ตัน
+ข้าวเปลือกเจ้า 25% = 13,800 บาท/ตัน
+ข้าวเปลือกปทุมธานี 1 (42 กรัม) = 16,000 บาท/ตัน
+ข้าวเปลือกเหนียว 10% คละ = 15,000 บาท/ตัน
+ข้าวเปลือกเหนียว 10% เมล็ดยาว 
+= 16,000 บาท/ตัน</t>
+  </si>
+  <si>
+    <t>11.11 ล้านตัน</t>
+  </si>
+  <si>
+    <t>มี.ค. 55</t>
+  </si>
+  <si>
+    <t>ม.ค. 56</t>
+  </si>
+  <si>
+    <t>18 ก.ย. 55</t>
+  </si>
+  <si>
+    <t>โครงการรับจำนำข้าวเปลือก 55-56 และการขอขยายปริมาณ และกรอบการใช้เงินโครงการรับจำนำข้าวเปลือกนาปรัง ปี 2555</t>
+  </si>
+  <si>
+    <t>13.31 ล้านตัน</t>
+  </si>
+  <si>
+    <t>269,160 ล้านบาท</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ข้าวเปลือกเจ้า 100% = 15,000 บาท/ตัน
+ข้าวเปลือกเจ้า 5% = 14,800 บาท/ตัน
+ข้าวเปลือกเจ้า 10% = 14,600 บาท/ตัน
+ข้าวเปลือกเจ้า 15% = 14,200 บาท/ตัน
+ข้าวเปลือกเจ้า 25% = 13,800 บาท/ตัน
+ข้าวเปลือกปทุมธานี 1 (42 กรัม) = 16,000 บาท/ตัน
+ข้าวเปลือกเหนียว 10% คละ = 15,000 บาท/ตัน
+ข้าวเปลือกเหนียว 10% เมล็ดยาว 
+= 16,000 บาท/ตัน
+ข้าวเปลือกหอมมะลิ 20,000 บาท/ตัน
+ข้าวเปลือกหอมจังหวัด 18,000 บาท/ตัน
+</t>
+  </si>
+  <si>
+    <t>1 ต.ค. 55</t>
+  </si>
+  <si>
+    <t>31 ม.ค. 57</t>
+  </si>
+  <si>
+    <t>2 ต.ค. 55</t>
+  </si>
+  <si>
+    <t>รายงานผลรับจำนำข้าวเปลือกนาปี 54-55 และพิจารณาปริมาณและวงเงินโครงการรับจำนำข้าวเปลือก ปีการผลิต 55-56</t>
+  </si>
+  <si>
+    <t>240,000 ล้านบาท</t>
+  </si>
+  <si>
+    <t>15 ต.ค. 55</t>
+  </si>
+  <si>
+    <t>การขยายปริมาณและกรอบการใช้เงินโครงการรับจำนำข้าวเปลือกนาปรัง ปี 2555 (กรณีพิเศษ)</t>
+  </si>
+  <si>
+    <t>14.70 ล้านตัน</t>
+  </si>
+  <si>
+    <t>410,000 ล้านบาท</t>
+  </si>
+  <si>
+    <t>โครงการรับจำนำข้าวเปลือก ปีการผลิต 2555-56 ครั้งที่ 2</t>
+  </si>
+  <si>
+    <t>31 มี.ค. 56</t>
+  </si>
+  <si>
+    <t>105,000 ล้านบาท</t>
+  </si>
+  <si>
+    <t>10 มิ.ย. 56</t>
+  </si>
+  <si>
+    <t>345,000 ล้านบาท</t>
+  </si>
+  <si>
+    <t>22 ล้านตัน</t>
+  </si>
+  <si>
+    <t>19 มิ.ย. 56</t>
+  </si>
+  <si>
+    <t>การปรับโครงการรับจำนำข้าวเปลือก ปีการผลิต 2555-56</t>
+  </si>
+  <si>
+    <t>ข้าวเปลือกเจ้า 100% = 12,000 บาท/ตัน</t>
+  </si>
+  <si>
+    <t>50,000 ล้านบาท</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30  มิ.ย. 56</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15  ก.ย. 56</t>
+  </si>
+  <si>
+    <t>2 ก.ค. 56</t>
+  </si>
+  <si>
+    <t>โครงการรับจำนำข้าวเปลือก ปีการผลิต 2555-56</t>
+  </si>
+  <si>
+    <t>โครงการรับจำนำข้าวเปลือก ปีการผลิต 2556-57</t>
+  </si>
+  <si>
+    <t>3 ก.ย. 56</t>
+  </si>
+  <si>
+    <t>16.5 ล้านตัน</t>
+  </si>
+  <si>
+    <t>270,000 ล้านบาท</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1  ต.ค. 56</t>
+  </si>
+  <si>
+    <t>28 ก.พ. 57</t>
+  </si>
+  <si>
+    <t>ข้าวเปลือกเจ้า 100% = 15,000 บาท/ตัน
+ข้าวเปลือกเจ้า 5% = 14,800 บาท/ตัน
+ข้าวเปลือกเจ้า 10% = 14,600 บาท/ตัน
+ข้าวเปลือกเจ้า 15% = 14,200 บาท/ตัน
+ข้าวเปลือกเจ้า 25% = 13,800 บาท/ตัน
+ข้าวเปลือกหอมมะลิ (42 กรัม) = 20,000 บาท/ตัน
+ข้าวเปลือกหอมจังหวัด (40 กรัม) = 18,000 บาท/ตัน
+ข้าวเปลือกปทุมธานี 1 (42 กรัม) = 16,000 บาท/ตัน
+ข้าวเปลือกเหนียว 10% คละ = 15,000 บาท/ตัน
+ข้าวเปลือกเหนียว 10% เมล็ดยาว 
+= 16,000 บาท/ตัน</t>
+  </si>
+  <si>
+    <t>11 ก.พ. 57</t>
+  </si>
+  <si>
+    <t>การแก้ไขปัญหาเกษตรกรเข้าร่วมโครงการรับจำนำข้าวเปลือก ปีการผลิต 2555-56</t>
+  </si>
+  <si>
+    <t>712.087 ล้านบาท</t>
+  </si>
+  <si>
+    <t>25 ก.พ. 57</t>
+  </si>
+  <si>
+    <t>ขออนุมัติงบประมาณเพื่อดำเนินโครงการรับจำนำข้าวเปลือก ปีการผลิต 2556-57</t>
+  </si>
+  <si>
+    <t>22 ก.ค. 57</t>
+  </si>
+  <si>
+    <t>4 พ.ย. 57</t>
+  </si>
+  <si>
+    <t>ขออนุมัติวงเงินโครงการชดเชยดอกเบี้ยให้ผู้ประกอบการค้าข้าวในการเก็บสต็อกปี 2557-58</t>
+  </si>
+  <si>
+    <t>7 เม.ย. 58</t>
+  </si>
+  <si>
+    <t>การช่วยเหลือเกษตรกรจังหวัดพิจิตร โครงการรับจำนำข้าวเปลือกฤดูการผลิต ปี 2555-56</t>
+  </si>
+  <si>
+    <t>ผู้ประกอบการค้าข้าว</t>
+  </si>
+  <si>
+    <t>4.47 ล้านตัน</t>
+  </si>
+  <si>
+    <t>52.83 ล้านบาท</t>
+  </si>
+  <si>
+    <t>612 ล้านบาท</t>
+  </si>
+  <si>
+    <t>42.083 ล้านตัน</t>
+  </si>
+  <si>
+    <t>621.748 ล้านบาท</t>
+  </si>
+  <si>
+    <t>47.89 ล้านบาท</t>
+  </si>
+  <si>
+    <t>ข้าวเปลือกเจ้า 100% = 15,000 บาท/ตัน
+ข้าวแปลือกปทุมธานี (42 กรัม) = 16,000 บาท/ตัน
+ข้าวเปลือกเหนียว 10% คละ = 15,000 บาท/ตัน
+ข้าวเปลือกเหนียว 10% เมล็ดยาว 
+= 16,000 บาท/ตัน</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16  ก.ย. 56</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18  มิ.ย. 56</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,8 +810,20 @@
       <name val="TH SarabunPSK"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="TH SarabunPSK"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,6 +833,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -123,7 +866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -135,6 +878,74 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,26 +1226,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="10.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="38.77734375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="12" customWidth="1"/>
     <col min="4" max="4" width="25.21875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="20.77734375" style="4" customWidth="1"/>
-    <col min="7" max="8" width="26.5546875" style="4" customWidth="1"/>
-    <col min="9" max="10" width="19.21875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="21.21875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="40.109375" style="4" customWidth="1"/>
+    <col min="7" max="8" width="26.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.109375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="22.44140625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" style="4" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,8 +1286,1137 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="A2" s="7">
+        <v>2528</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="A3" s="7">
+        <v>2535</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="A4" s="7">
+        <v>2536</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:11" ht="73.8" x14ac:dyDescent="0.7">
+      <c r="A5" s="7">
+        <v>2537</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" ht="123" x14ac:dyDescent="0.7">
+      <c r="A6" s="7">
+        <v>2539</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" ht="49.2" x14ac:dyDescent="0.7">
+      <c r="A7" s="7">
+        <v>2542</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" ht="49.2" x14ac:dyDescent="0.7">
+      <c r="A8" s="7">
+        <v>2542</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" ht="246" x14ac:dyDescent="0.7">
+      <c r="A9" s="7">
+        <v>2545</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" ht="196.8" x14ac:dyDescent="0.7">
+      <c r="A10" s="7">
+        <v>2548</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="A11" s="7">
+        <v>2548</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" ht="123" x14ac:dyDescent="0.7">
+      <c r="A12" s="7">
+        <v>2548</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="14"/>
+      <c r="F12" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="A13" s="7">
+        <v>2548</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" ht="49.2" x14ac:dyDescent="0.7">
+      <c r="A14" s="7">
+        <v>2549</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" ht="196.8" x14ac:dyDescent="0.7">
+      <c r="A15" s="7">
+        <v>2550</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" ht="196.8" x14ac:dyDescent="0.7">
+      <c r="A16" s="7">
+        <v>2550</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="14"/>
+      <c r="I16" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" ht="147.6" x14ac:dyDescent="0.7">
+      <c r="A17" s="7">
+        <v>2550</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" ht="319.8" x14ac:dyDescent="0.6">
+      <c r="A18" s="7">
+        <v>2550</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="A19" s="7">
+        <v>2551</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="196.8" x14ac:dyDescent="0.7">
+      <c r="A20" s="7">
+        <v>2551</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="A21" s="7">
+        <v>2551</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="196.8" x14ac:dyDescent="0.7">
+      <c r="A22" s="7">
+        <v>2551</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="123" x14ac:dyDescent="0.7">
+      <c r="A23" s="7">
+        <v>2552</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" ht="172.2" x14ac:dyDescent="0.7">
+      <c r="A24" s="7">
+        <v>2552</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" ht="73.8" x14ac:dyDescent="0.7">
+      <c r="A25" s="7">
+        <v>2552</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="1:11" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="A26" s="7">
+        <v>2552</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="1:11" ht="49.2" x14ac:dyDescent="0.7">
+      <c r="A27" s="7">
+        <v>2552</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="14"/>
+      <c r="H27" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="1:11" ht="49.2" x14ac:dyDescent="0.7">
+      <c r="A28" s="24">
+        <v>2552</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+    </row>
+    <row r="29" spans="1:11" ht="49.2" x14ac:dyDescent="0.7">
+      <c r="A29" s="24">
+        <v>2552</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+    </row>
+    <row r="30" spans="1:11" ht="123" x14ac:dyDescent="0.5">
+      <c r="A30" s="7">
+        <v>2552</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="49.2" x14ac:dyDescent="0.7">
+      <c r="A31" s="7">
+        <v>2554</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="49.2" x14ac:dyDescent="0.7">
+      <c r="A32" s="7">
+        <v>2554</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
+      <c r="A33" s="7">
+        <v>2554</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="270.60000000000002" x14ac:dyDescent="0.7">
+      <c r="A34" s="7">
+        <v>2555</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="344.4" x14ac:dyDescent="0.7">
+      <c r="A35" s="7">
+        <v>2555</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="73.8" x14ac:dyDescent="0.7">
+      <c r="A36" s="7">
+        <v>2555</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
+      <c r="A37" s="7">
+        <v>2555</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="A38" s="13">
+        <v>2556</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="A39" s="13">
+        <v>2556</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="A40" s="13">
+        <v>2556</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="172.2" x14ac:dyDescent="0.7">
+      <c r="A41" s="13">
+        <v>2556</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="30"/>
+      <c r="F41" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="369" x14ac:dyDescent="0.7">
+      <c r="A42" s="7">
+        <v>2556</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
+      <c r="A43" s="7">
+        <v>2557</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
+      <c r="A44" s="31">
+        <v>2557</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="H44" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
+      <c r="A45" s="7">
+        <v>2557</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
+      <c r="A46" s="7">
+        <v>2557</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F46" s="14"/>
+      <c r="H46" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="49.2" x14ac:dyDescent="0.7">
+      <c r="A47" s="7">
+        <v>2558</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="H47" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="B48" s="14"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+    </row>
+    <row r="49" spans="2:6" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="B49" s="14"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+    </row>
+    <row r="50" spans="2:6" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="B50" s="14"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+    </row>
+    <row r="51" spans="2:6" ht="24.6" x14ac:dyDescent="0.7">
+      <c r="B51" s="14"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>